--- a/DataExtractionDecisionTree.xlsx
+++ b/DataExtractionDecisionTree.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniela/Dropbox/ALMA-Dropbox/RICERCA/ASIA-GiM/JETAI/games/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniela/Dropbox/ALMA-Dropbox/RICERCA/ASIA-GiM/JETAI/spatial-reasoning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047DE81D-4251-454F-872F-D643CD1D5AD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152CF572-34D7-F74C-96A8-1897ABE93E5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10540" yWindow="460" windowWidth="23060" windowHeight="20540" xr2:uid="{E2E39F6F-DBD2-854A-8B06-D3B5A7EF79CE}"/>
   </bookViews>
@@ -634,9 +634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8984BDD4-9035-8941-A0FD-AAEC5CEBBC2E}">
   <dimension ref="C4:G92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D70" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F85" sqref="F85:F86"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
